--- a/PinRecords.xlsx
+++ b/PinRecords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Timestamp</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>1542</t>
+  </si>
+  <si>
+    <t>2025-10-04T18:27:43.008108</t>
+  </si>
+  <si>
+    <t>5678</t>
   </si>
 </sst>
 </file>
@@ -86,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -132,6 +138,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/PinRecords.xlsx
+++ b/PinRecords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Timestamp</t>
   </si>
@@ -48,6 +48,27 @@
   </si>
   <si>
     <t>5678</t>
+  </si>
+  <si>
+    <t>2025-10-04T18:41:52.355282500</t>
+  </si>
+  <si>
+    <t>1418</t>
+  </si>
+  <si>
+    <t>2025-10-04T18:45:40.939709600</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>2025-10-04T18:52:51.945582400</t>
+  </si>
+  <si>
+    <t>4821</t>
+  </si>
+  <si>
+    <t>2025-10-04T18:55:29.215651300</t>
   </si>
 </sst>
 </file>
@@ -92,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -146,6 +167,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/PinRecords.xlsx
+++ b/PinRecords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Timestamp</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>5678</t>
+  </si>
+  <si>
+    <t>2025-10-04T18:50:27.646609400</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>2025-10-04T18:53:55.053821100</t>
+  </si>
+  <si>
+    <t>2025-10-04T18:54:12.208732700</t>
   </si>
 </sst>
 </file>
@@ -92,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -146,6 +158,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/PinRecords.xlsx
+++ b/PinRecords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Timestamp</t>
   </si>
@@ -69,6 +69,150 @@
   </si>
   <si>
     <t>2025-10-04T18:55:29.215651300</t>
+  </si>
+  <si>
+    <t>2025-10-04T19:23:54.190791100</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>2025-10-04T19:46:15.072472100</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>2025-10-09T21:33:54.063739400</t>
+  </si>
+  <si>
+    <t>5421</t>
+  </si>
+  <si>
+    <t>2025-10-09T22:22:11.596510300</t>
+  </si>
+  <si>
+    <t>4213</t>
+  </si>
+  <si>
+    <t>2025-10-10T00:59:41.547174300</t>
+  </si>
+  <si>
+    <t>6421</t>
+  </si>
+  <si>
+    <t>2025-10-10T01:05:46.668904</t>
+  </si>
+  <si>
+    <t>8741</t>
+  </si>
+  <si>
+    <t>2025-10-10T01:08:37.914309400</t>
+  </si>
+  <si>
+    <t>8721</t>
+  </si>
+  <si>
+    <t>2025-10-10T02:28:26.049047800</t>
+  </si>
+  <si>
+    <t>4221</t>
+  </si>
+  <si>
+    <t>2025-10-10T02:29:06.231189600</t>
+  </si>
+  <si>
+    <t>5432</t>
+  </si>
+  <si>
+    <t>2025-10-10T02:30:00.097856500</t>
+  </si>
+  <si>
+    <t>5242</t>
+  </si>
+  <si>
+    <t>2025-10-10T02:32:01.053732900</t>
+  </si>
+  <si>
+    <t>7821</t>
+  </si>
+  <si>
+    <t>2025-10-10T02:32:32.244594600</t>
+  </si>
+  <si>
+    <t>9871</t>
+  </si>
+  <si>
+    <t>2025-10-10T02:49:04.047606</t>
+  </si>
+  <si>
+    <t>7421</t>
+  </si>
+  <si>
+    <t>2025-10-10T02:49:47.276764300</t>
+  </si>
+  <si>
+    <t>0917</t>
+  </si>
+  <si>
+    <t>2025-10-10T02:59:42.213064400</t>
+  </si>
+  <si>
+    <t>9876</t>
+  </si>
+  <si>
+    <t>2025-10-10T03:08:38.917494900</t>
+  </si>
+  <si>
+    <t>7654</t>
+  </si>
+  <si>
+    <t>2025-10-10T03:09:13.898470800</t>
+  </si>
+  <si>
+    <t>6543</t>
+  </si>
+  <si>
+    <t>2025-10-10T03:28:11.977903800</t>
+  </si>
+  <si>
+    <t>0987</t>
+  </si>
+  <si>
+    <t>2025-10-10T03:29:55.697012400</t>
+  </si>
+  <si>
+    <t>4567</t>
+  </si>
+  <si>
+    <t>2025-10-10T04:02:35.624001200</t>
+  </si>
+  <si>
+    <t>4987</t>
+  </si>
+  <si>
+    <t>2025-10-10T04:07:45.805976200</t>
+  </si>
+  <si>
+    <t>0798</t>
+  </si>
+  <si>
+    <t>2025-10-10T04:18:05.079939900</t>
+  </si>
+  <si>
+    <t>6978</t>
+  </si>
+  <si>
+    <t>2025-10-10T04:26:46.474975500</t>
+  </si>
+  <si>
+    <t>4756</t>
+  </si>
+  <si>
+    <t>2025-10-10T04:29:42.819291500</t>
+  </si>
+  <si>
+    <t>7890</t>
   </si>
 </sst>
 </file>
@@ -113,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -199,6 +343,198 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/PinRecords.xlsx
+++ b/PinRecords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Timestamp</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>7890</t>
+  </si>
+  <si>
+    <t>2025-10-12T01:48:00.832918500</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>2025-10-12T10:20:47.231316800</t>
+  </si>
+  <si>
+    <t>2344</t>
   </si>
 </sst>
 </file>
@@ -257,7 +269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -535,6 +547,22 @@
         <v>66</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
